--- a/www/ig/fhir/tddui/StructureDefinition-tddui-documentreference.xlsx
+++ b/www/ig/fhir/tddui/StructureDefinition-tddui-documentreference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1-ballot</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T13:52:19+01:00</t>
+    <t>2024-04-02T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -337,10 +337,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -498,6 +505,12 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.tag</t>
   </si>
   <si>
@@ -612,9 +625,6 @@
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>DocumentReference.extension</t>
@@ -849,6 +859,9 @@
     <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>DocumentEntry.class</t>
   </si>
   <si>
@@ -865,6 +878,13 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1198,6 +1218,13 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
+  </si>
+  <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1227,6 +1254,9 @@
   </si>
   <si>
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
@@ -1546,6 +1576,14 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>Composition.event.period</t>
   </si>
   <si>
@@ -1559,6 +1597,9 @@
 @value</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1569,6 +1610,9 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -1984,17 +2028,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2003,29 +2047,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.75" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="119.20703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.64453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="81.69140625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="155.44140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2499,10 +2543,10 @@
         <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2511,7 +2555,7 @@
         <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>80</v>
@@ -2528,10 +2572,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2554,13 +2598,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2611,7 +2655,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
@@ -2632,7 +2676,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2649,14 +2693,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2675,16 +2719,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2722,19 +2766,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2743,10 +2787,10 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2755,7 +2799,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2772,10 +2816,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2801,13 +2845,13 @@
         <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2857,7 +2901,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
@@ -2866,10 +2910,10 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2878,7 +2922,7 @@
         <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>80</v>
@@ -2895,10 +2939,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2921,16 +2965,16 @@
         <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2980,7 +3024,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2989,10 +3033,10 @@
         <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
@@ -3001,7 +3045,7 @@
         <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>80</v>
@@ -3018,10 +3062,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3044,16 +3088,16 @@
         <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3103,7 +3147,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3112,10 +3156,10 @@
         <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -3124,7 +3168,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -3141,10 +3185,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3167,16 +3211,16 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3226,7 +3270,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3235,10 +3279,10 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -3247,7 +3291,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -3264,10 +3308,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3290,16 +3334,16 @@
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3325,13 +3369,13 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>80</v>
@@ -3349,7 +3393,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3358,10 +3402,10 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3370,7 +3414,7 @@
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3379,7 +3423,7 @@
         <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>80</v>
@@ -3387,10 +3431,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3413,16 +3457,16 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3448,13 +3492,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3472,7 +3516,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3481,10 +3525,10 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3493,7 +3537,7 @@
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3502,7 +3546,7 @@
         <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>80</v>
@@ -3510,10 +3554,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3536,16 +3580,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3595,7 +3639,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3604,10 +3648,10 @@
         <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3616,7 +3660,7 @@
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3633,10 +3677,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3659,16 +3703,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3694,13 +3738,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3718,7 +3762,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3727,10 +3771,10 @@
         <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3739,7 +3783,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3756,14 +3800,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3782,16 +3826,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3841,7 +3885,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3850,10 +3894,10 @@
         <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3862,7 +3906,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3879,14 +3923,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3905,16 +3949,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3964,7 +4008,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3985,7 +4029,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4002,14 +4046,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4028,16 +4072,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4075,19 +4119,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4096,10 +4140,10 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4108,7 +4152,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4125,10 +4169,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4151,13 +4195,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4196,19 +4240,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4217,10 +4261,10 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4246,10 +4290,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4272,19 +4316,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4333,7 +4377,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4342,39 +4386,39 @@
         <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4397,13 +4441,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4454,7 +4498,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4463,39 +4507,39 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4518,16 +4562,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4538,7 +4582,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>80</v>
@@ -4553,13 +4597,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4577,7 +4621,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>93</v>
@@ -4586,39 +4630,39 @@
         <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4641,16 +4685,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4676,13 +4720,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4700,7 +4744,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4709,28 +4753,28 @@
         <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>80</v>
@@ -4738,10 +4782,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4764,16 +4808,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4799,11 +4843,11 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4821,7 +4865,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4830,43 +4874,43 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4885,16 +4929,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4920,11 +4964,11 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4942,7 +4986,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4951,39 +4995,39 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5006,15 +5050,17 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5063,7 +5109,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5072,43 +5118,43 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5127,16 +5173,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5186,7 +5232,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5195,25 +5241,25 @@
         <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5224,10 +5270,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5250,16 +5296,16 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5309,7 +5355,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5318,39 +5364,39 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5373,16 +5419,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5432,7 +5478,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5441,39 +5487,39 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5496,16 +5542,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5555,7 +5601,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5564,19 +5610,19 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5593,10 +5639,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5619,16 +5665,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5678,7 +5724,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5687,19 +5733,19 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5711,15 +5757,15 @@
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5742,13 +5788,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5799,7 +5845,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5820,7 +5866,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5837,14 +5883,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5863,16 +5909,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5910,19 +5956,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5931,10 +5977,10 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5943,7 +5989,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5960,14 +6006,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5986,19 +6032,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6047,7 +6093,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6056,10 +6102,10 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6068,7 +6114,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6085,10 +6131,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6111,16 +6157,16 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6146,13 +6192,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6170,7 +6216,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>93</v>
@@ -6179,19 +6225,19 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6203,15 +6249,15 @@
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6234,15 +6280,17 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6291,7 +6339,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>93</v>
@@ -6300,19 +6348,19 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6324,15 +6372,15 @@
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6355,19 +6403,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6416,7 +6464,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6425,10 +6473,10 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6437,7 +6485,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6446,18 +6494,18 @@
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6480,19 +6528,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6517,13 +6565,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6541,7 +6589,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6550,39 +6598,39 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6605,13 +6653,13 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6662,7 +6710,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>93</v>
@@ -6671,19 +6719,19 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6700,10 +6748,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6726,13 +6774,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6783,7 +6831,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6804,7 +6852,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6821,14 +6869,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6847,16 +6895,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6894,19 +6942,19 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6915,10 +6963,10 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6927,7 +6975,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6944,14 +6992,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6970,19 +7018,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7031,7 +7079,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7040,10 +7088,10 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7052,7 +7100,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7069,10 +7117,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7095,15 +7143,17 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7152,7 +7202,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>93</v>
@@ -7161,39 +7211,39 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7216,13 +7266,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7273,7 +7323,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7294,7 +7344,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7311,14 +7361,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7337,16 +7387,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7384,19 +7434,19 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7405,10 +7455,10 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7417,7 +7467,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7434,10 +7484,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7460,17 +7510,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7483,7 +7535,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7495,13 +7547,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7519,7 +7571,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7528,10 +7580,10 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7540,7 +7592,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7549,7 +7601,7 @@
         <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>80</v>
@@ -7557,10 +7609,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7583,17 +7635,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7606,7 +7660,7 @@
         <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>80</v>
@@ -7618,13 +7672,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7642,7 +7696,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7651,10 +7705,10 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7663,7 +7717,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7680,10 +7734,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7706,19 +7760,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7767,7 +7821,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7776,10 +7830,10 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7788,7 +7842,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7797,7 +7851,7 @@
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>80</v>
@@ -7805,10 +7859,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7831,19 +7885,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7856,7 +7910,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7892,7 +7946,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7901,10 +7955,10 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7913,7 +7967,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7922,7 +7976,7 @@
         <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>80</v>
@@ -7930,10 +7984,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7956,19 +8010,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8017,7 +8071,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8026,10 +8080,10 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -8038,7 +8092,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8055,10 +8109,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8081,19 +8135,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8142,7 +8196,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8151,10 +8205,10 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8163,7 +8217,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8180,10 +8234,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8206,17 +8260,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8229,7 +8285,7 @@
         <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>80</v>
@@ -8265,7 +8321,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8274,10 +8330,10 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8286,7 +8342,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8303,10 +8359,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8329,17 +8385,17 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8388,7 +8444,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8397,10 +8453,10 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8409,7 +8465,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8426,10 +8482,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8452,16 +8508,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8487,11 +8543,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8509,7 +8565,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8518,39 +8574,39 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8573,16 +8629,16 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8632,7 +8688,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8641,10 +8697,10 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8653,7 +8709,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8670,10 +8726,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8696,13 +8752,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8753,7 +8809,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8774,7 +8830,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8791,14 +8847,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8817,16 +8873,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8864,19 +8920,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8885,10 +8941,10 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8897,7 +8953,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8914,14 +8970,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8940,19 +8996,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9001,7 +9057,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9010,10 +9066,10 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9022,7 +9078,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9039,10 +9095,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9065,15 +9121,17 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9122,7 +9180,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9131,25 +9189,25 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9160,10 +9218,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9186,16 +9244,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9221,13 +9279,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9245,7 +9303,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9254,19 +9312,19 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9275,18 +9333,18 @@
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9309,15 +9367,17 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9366,7 +9426,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9375,39 +9435,39 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9430,15 +9490,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9463,11 +9525,11 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9485,7 +9547,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9494,39 +9556,39 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9549,19 +9611,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9586,11 +9648,11 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9608,7 +9670,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9617,39 +9679,39 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9672,15 +9734,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9729,7 +9793,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9738,22 +9802,22 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9762,15 +9826,15 @@
         <v>80</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9793,16 +9857,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9852,7 +9916,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9861,22 +9925,22 @@
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9885,7 +9949,7 @@
         <v>80</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/tddui/StructureDefinition-tddui-documentreference.xlsx
+++ b/www/ig/fhir/tddui/StructureDefinition-tddui-documentreference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:15:09+00:00</t>
+    <t>2025-02-26T10:26:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -337,17 +337,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -448,7 +441,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -468,7 +461,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -505,12 +498,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.tag</t>
   </si>
   <si>
@@ -625,6 +612,9 @@
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>DocumentReference.extension</t>
@@ -795,7 +785,6 @@
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-bind-type:Les valeurs possibles pour cet élément doivent provenir d’une des terminologies de référence suivantes :
  TRE_A05-TypeDocComplementaireCISIS, OID : 1.2.250.1.213.1.1.4.12
- TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
 En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
@@ -859,16 +848,13 @@
     <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>DocumentEntry.class</t>
   </si>
   <si>
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>
@@ -876,13 +862,6 @@
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1218,13 +1197,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1256,9 +1228,6 @@
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
   </si>
   <si>
@@ -1394,7 +1363,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -1576,14 +1545,6 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>Composition.event.period</t>
   </si>
   <si>
@@ -1597,9 +1558,6 @@
 @value</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1610,9 +1568,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -1659,10 +1614,6 @@
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
-</t>
   </si>
   <si>
     <t>Référence vers la ressource Patient titulaire du dossier.</t>
@@ -2543,11 +2494,11 @@
         <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
       </c>
@@ -2555,7 +2506,7 @@
         <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>80</v>
@@ -2572,10 +2523,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2598,13 +2549,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2655,7 +2606,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
@@ -2676,7 +2627,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2693,14 +2644,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2719,16 +2670,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2766,19 +2717,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2787,10 +2738,10 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2799,7 +2750,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2816,10 +2767,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2845,13 +2796,13 @@
         <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2901,7 +2852,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
@@ -2910,11 +2861,11 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
       </c>
@@ -2922,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>80</v>
@@ -2939,10 +2890,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2965,16 +2916,16 @@
         <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3024,7 +2975,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -3033,11 +2984,11 @@
         <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
       </c>
@@ -3045,7 +2996,7 @@
         <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>80</v>
@@ -3062,10 +3013,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3088,16 +3039,16 @@
         <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3147,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3156,11 +3107,11 @@
         <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
       </c>
@@ -3168,7 +3119,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -3185,10 +3136,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3211,16 +3162,16 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3270,7 +3221,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3279,11 +3230,11 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3291,7 +3242,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -3308,10 +3259,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3334,16 +3285,16 @@
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3369,31 +3320,31 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3402,11 +3353,11 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3414,7 +3365,7 @@
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3423,7 +3374,7 @@
         <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>80</v>
@@ -3431,10 +3382,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3457,16 +3408,16 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3492,13 +3443,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3516,7 +3467,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3525,11 +3476,11 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3537,7 +3488,7 @@
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3546,7 +3497,7 @@
         <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>80</v>
@@ -3554,10 +3505,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3580,16 +3531,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3639,7 +3590,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3648,11 +3599,11 @@
         <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3660,7 +3611,7 @@
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3677,10 +3628,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3703,16 +3654,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3738,13 +3689,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3762,7 +3713,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3771,11 +3722,11 @@
         <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3783,7 +3734,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3800,14 +3751,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3826,16 +3777,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3885,7 +3836,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3894,11 +3845,11 @@
         <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3906,7 +3857,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3923,14 +3874,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3949,16 +3900,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4008,7 +3959,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4029,7 +3980,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4046,14 +3997,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4072,16 +4023,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4119,19 +4070,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4140,10 +4091,10 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4152,7 +4103,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4169,10 +4120,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4195,13 +4146,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4240,19 +4191,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4261,10 +4212,10 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4290,10 +4241,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4316,19 +4267,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4377,7 +4328,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4386,39 +4337,39 @@
         <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4441,13 +4392,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4498,7 +4449,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4507,39 +4458,39 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4562,16 +4513,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4582,29 +4533,29 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4621,7 +4572,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>93</v>
@@ -4630,39 +4581,39 @@
         <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AQ21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4685,16 +4636,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4720,13 +4671,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4744,7 +4695,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4753,28 +4704,28 @@
         <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>80</v>
@@ -4782,10 +4733,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4808,16 +4759,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4843,11 +4794,11 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4865,7 +4816,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4874,43 +4825,43 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4929,16 +4880,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4964,11 +4915,11 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4986,7 +4937,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4995,39 +4946,39 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ24" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5050,17 +5001,15 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5109,7 +5058,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5118,43 +5067,43 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AQ25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5173,16 +5122,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5232,7 +5181,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5241,25 +5190,25 @@
         <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5270,10 +5219,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5296,16 +5245,16 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5355,7 +5304,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5364,39 +5313,39 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5419,16 +5368,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5478,7 +5427,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5487,39 +5436,39 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5542,16 +5491,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5601,7 +5550,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5610,19 +5559,19 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5639,10 +5588,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5665,16 +5614,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5724,7 +5673,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5733,19 +5682,19 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5757,15 +5706,15 @@
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5788,13 +5737,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5845,7 +5794,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5866,7 +5815,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5883,14 +5832,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5909,16 +5858,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5956,19 +5905,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5977,10 +5926,10 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5989,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6006,14 +5955,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6032,19 +5981,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6093,7 +6042,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6102,10 +6051,10 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6114,7 +6063,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6131,10 +6080,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6157,16 +6106,16 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6192,13 +6141,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6216,7 +6165,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>93</v>
@@ -6225,19 +6174,19 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6249,15 +6198,15 @@
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6280,17 +6229,15 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6339,7 +6286,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>93</v>
@@ -6348,19 +6295,19 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6372,15 +6319,15 @@
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6403,19 +6350,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6464,7 +6411,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6473,11 +6420,11 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6485,7 +6432,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6494,18 +6441,18 @@
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6528,19 +6475,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6565,14 +6512,14 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6589,7 +6536,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6598,39 +6545,39 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6653,13 +6600,13 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6710,7 +6657,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>93</v>
@@ -6719,19 +6666,19 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6748,10 +6695,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6774,13 +6721,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6831,7 +6778,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6852,7 +6799,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6869,14 +6816,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6895,16 +6842,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6942,19 +6889,19 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6963,10 +6910,10 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6975,7 +6922,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6992,14 +6939,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7018,19 +6965,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7079,7 +7026,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7088,10 +7035,10 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7100,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7117,10 +7064,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7143,17 +7090,15 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7202,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>93</v>
@@ -7211,39 +7156,39 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7266,13 +7211,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7323,7 +7268,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7344,7 +7289,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7361,14 +7306,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7387,16 +7332,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7434,19 +7379,19 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AC44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7455,10 +7400,10 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7467,7 +7412,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7484,10 +7429,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7510,19 +7455,17 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7535,7 +7478,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7547,13 +7490,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7571,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7580,11 +7523,11 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7592,7 +7535,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7601,7 +7544,7 @@
         <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>80</v>
@@ -7609,10 +7552,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7635,19 +7578,17 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7660,7 +7601,7 @@
         <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>80</v>
@@ -7672,13 +7613,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7696,7 +7637,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7705,11 +7646,11 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7717,7 +7658,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7734,10 +7675,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7760,19 +7701,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7821,7 +7762,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7830,11 +7771,11 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7842,7 +7783,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7851,7 +7792,7 @@
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>80</v>
@@ -7859,10 +7800,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7885,19 +7826,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7910,7 +7851,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7946,7 +7887,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7955,11 +7896,11 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7967,7 +7908,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7976,7 +7917,7 @@
         <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>80</v>
@@ -7984,10 +7925,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8010,19 +7951,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8071,7 +8012,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8080,11 +8021,11 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8092,7 +8033,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8109,10 +8050,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8135,19 +8076,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8196,7 +8137,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8205,11 +8146,11 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8217,7 +8158,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8234,10 +8175,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8260,19 +8201,17 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8285,7 +8224,7 @@
         <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>80</v>
@@ -8321,7 +8260,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8330,11 +8269,11 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8342,7 +8281,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8359,10 +8298,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8385,17 +8324,17 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8444,7 +8383,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8453,11 +8392,11 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8465,7 +8404,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8482,10 +8421,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8508,16 +8447,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8543,11 +8482,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8565,7 +8504,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8574,39 +8513,39 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8629,16 +8568,16 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8688,7 +8627,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8697,11 +8636,11 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8709,7 +8648,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8726,10 +8665,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8752,13 +8691,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8809,7 +8748,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8830,7 +8769,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8847,14 +8786,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8873,16 +8812,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8920,19 +8859,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8941,10 +8880,10 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8953,7 +8892,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8970,14 +8909,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8996,19 +8935,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9057,7 +8996,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9066,10 +9005,10 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9078,7 +9017,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9095,10 +9034,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9121,17 +9060,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9180,7 +9117,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9189,25 +9126,25 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK58" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9218,10 +9155,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9244,16 +9181,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9279,13 +9216,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9303,7 +9240,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9312,19 +9249,19 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9333,18 +9270,18 @@
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9367,17 +9304,15 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9426,7 +9361,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9435,39 +9370,39 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9490,17 +9425,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9525,11 +9458,11 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9547,7 +9480,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9556,39 +9489,39 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9611,19 +9544,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9648,11 +9581,11 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9670,7 +9603,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9679,39 +9612,39 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9734,17 +9667,15 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>521</v>
+        <v>267</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9793,7 +9724,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9802,22 +9733,22 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9826,15 +9757,15 @@
         <v>80</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9857,16 +9788,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9916,7 +9847,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9925,22 +9856,22 @@
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9949,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
